--- a/examples/shared-formulas/out.xlsx
+++ b/examples/shared-formulas/out.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Clicks</t>
   </si>
@@ -48,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -85,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1617,21 +1617,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
-        <v>381962</v>
+        <v>167484</v>
       </c>
       <c r="D3" s="4">
-        <f ref="D3:D12" si="0" t="shared">B3/C3</f>
+        <f t="shared" si="0" ref="D3:D13">B3/C3</f>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>740</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
-        <v>435040</v>
+        <v>450561</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>760</v>
+        <v>360</v>
       </c>
       <c r="C5" s="1">
-        <v>95759</v>
+        <v>476301</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>561</v>
+        <v>895</v>
       </c>
       <c r="C6" s="1">
-        <v>970887</v>
+        <v>164357</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="C7" s="1">
-        <v>240020</v>
+        <v>957556</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>363</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1">
-        <v>926503</v>
+        <v>279795</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1683,10 +1683,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>866</v>
+        <v>976</v>
       </c>
       <c r="C9" s="1">
-        <v>688782</v>
+        <v>793467</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="10">
       <c r="B10">
-        <v>973</v>
+        <v>312</v>
       </c>
       <c r="C10">
-        <v>609813</v>
+        <v>505911</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="11">
       <c r="B11">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="C11">
-        <v>784474</v>
+        <v>409768</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -1716,12 +1716,23 @@
     </row>
     <row r="12">
       <c r="B12">
-        <v>987</v>
+        <v>342</v>
       </c>
       <c r="C12">
-        <v>996306</v>
+        <v>153323</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13">
+        <v>426</v>
+      </c>
+      <c r="C13">
+        <v>312408</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
       </c>
     </row>

--- a/examples/shared-formulas/out.xlsx
+++ b/examples/shared-formulas/out.xlsx
@@ -1617,10 +1617,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
-        <v>167484</v>
+        <v>927452</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0" ref="D3:D13">B3/C3</f>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>104</v>
+        <v>862</v>
       </c>
       <c r="C4" s="1">
-        <v>450561</v>
+        <v>480496</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>360</v>
+        <v>685</v>
       </c>
       <c r="C5" s="1">
-        <v>476301</v>
+        <v>665152</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>895</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
-        <v>164357</v>
+        <v>286194</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>355</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1">
-        <v>957556</v>
+        <v>532489</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>214</v>
+        <v>603</v>
       </c>
       <c r="C8" s="1">
-        <v>279795</v>
+        <v>232785</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1683,10 +1683,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>976</v>
+        <v>852</v>
       </c>
       <c r="C9" s="1">
-        <v>793467</v>
+        <v>109441</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="10">
       <c r="B10">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C10">
-        <v>505911</v>
+        <v>824381</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="11">
       <c r="B11">
-        <v>422</v>
+        <v>902</v>
       </c>
       <c r="C11">
-        <v>409768</v>
+        <v>718670</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="12">
       <c r="B12">
-        <v>342</v>
+        <v>911</v>
       </c>
       <c r="C12">
-        <v>153323</v>
+        <v>501958</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="13">
       <c r="B13">
-        <v>426</v>
+        <v>222</v>
       </c>
       <c r="C13">
-        <v>312408</v>
+        <v>419976</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>

--- a/examples/shared-formulas/out.xlsx
+++ b/examples/shared-formulas/out.xlsx
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts>
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts x14ac:knownFonts="1">
@@ -1617,124 +1617,65 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>70</v>
+        <v>423</v>
       </c>
       <c r="C3" s="1">
-        <v>927452</v>
+        <v>398503</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" si="0" ref="D3:D13">B3/C3</f>
+        <f ref="D3:D7" si="0" t="shared">B3/C3</f>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>862</v>
+        <v>757</v>
       </c>
       <c r="C4" s="1">
-        <v>480496</v>
+        <v>460983</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>685</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1">
-        <v>665152</v>
+        <v>342456</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1">
-        <v>286194</v>
+        <v>235098</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1">
-        <v>532489</v>
+        <v>53843</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>603</v>
-      </c>
-      <c r="C8" s="1">
-        <v>232785</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>852</v>
-      </c>
-      <c r="C9" s="1">
-        <v>109441</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <v>287</v>
-      </c>
-      <c r="C10">
-        <v>824381</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11">
-        <v>902</v>
-      </c>
-      <c r="C11">
-        <v>718670</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12">
-        <v>911</v>
-      </c>
-      <c r="C12">
-        <v>501958</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <v>222</v>
-      </c>
-      <c r="C13">
-        <v>419976</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-      </c>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/examples/shared-formulas/out.xlsx
+++ b/examples/shared-formulas/out.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Clicks</t>
   </si>

--- a/examples/shared-formulas/out.xlsx
+++ b/examples/shared-formulas/out.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>Clicks</t>
   </si>
@@ -64,6 +64,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills>
     <fill>
@@ -72,8 +83,96 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -91,6 +190,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1" numFmtId="10"/>
+    <xf fontId="9" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1" numFmtId="10"/>
+    <xf fontId="10" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1" numFmtId="10"/>
+    <xf fontId="11" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1" numFmtId="10"/>
+    <xf fontId="12" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1" numFmtId="10"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,65 +1727,124 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>423</v>
+        <v>812</v>
       </c>
       <c r="C3" s="1">
-        <v>398503</v>
-      </c>
-      <c r="D3" s="4">
-        <f ref="D3:D7" si="0" t="shared">B3/C3</f>
+        <v>17596</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="1" ref="D3:D13">B3/C3</f>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>757</v>
+        <v>380</v>
       </c>
       <c r="C4" s="1">
-        <v>460983</v>
-      </c>
-      <c r="D4" s="4">
-        <f si="0" t="shared"/>
+        <v>621352</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="1"/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>235</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1">
-        <v>342456</v>
-      </c>
-      <c r="D5" s="4">
-        <f si="0" t="shared"/>
+        <v>814325</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>145</v>
+        <v>606</v>
       </c>
       <c r="C6" s="1">
-        <v>235098</v>
-      </c>
-      <c r="D6" s="4">
-        <f si="0" t="shared"/>
+        <v>332744</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="1"/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
-        <v>53843</v>
-      </c>
-      <c r="D7" s="4">
-        <f si="0" t="shared"/>
+        <v>815717</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="1"/>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
+      <c r="B8">
+        <v>371</v>
+      </c>
+      <c r="C8" s="1">
+        <v>781845</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="1"/>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="B9">
+        <v>393</v>
+      </c>
+      <c r="C9" s="1">
+        <v>569500</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10">
+        <v>238</v>
+      </c>
+      <c r="C10">
+        <v>319935</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11">
+        <v>702</v>
+      </c>
+      <c r="C11">
+        <v>678651</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="1"/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12">
+        <v>526</v>
+      </c>
+      <c r="C12">
+        <v>751536</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="1"/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>655140</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="1"/>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/examples/shared-formulas/out.xlsx
+++ b/examples/shared-formulas/out.xlsx
@@ -1713,8 +1713,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1726,121 +1730,132 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3"/>
       <c r="B3" s="1">
-        <v>812</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1">
-        <v>17596</v>
+        <v>346380</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" si="1" ref="D3:D13">B3/C3</f>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4"/>
       <c r="B4" s="1">
-        <v>380</v>
+        <v>614</v>
       </c>
       <c r="C4" s="1">
-        <v>621352</v>
+        <v>293935</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5"/>
       <c r="B5" s="1">
-        <v>395</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1">
-        <v>814325</v>
+        <v>899517</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6"/>
       <c r="B6">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C6" s="1">
-        <v>332744</v>
+        <v>781247</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7"/>
       <c r="B7" s="1">
-        <v>49</v>
+        <v>975</v>
       </c>
       <c r="C7" s="1">
-        <v>815717</v>
+        <v>800261</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8"/>
       <c r="B8">
-        <v>371</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1">
-        <v>781845</v>
+        <v>333038</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9"/>
       <c r="B9">
-        <v>393</v>
+        <v>810</v>
       </c>
       <c r="C9" s="1">
-        <v>569500</v>
+        <v>843502</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="10">
+      <c r="A10"/>
       <c r="B10">
-        <v>238</v>
+        <v>976</v>
       </c>
       <c r="C10">
-        <v>319935</v>
+        <v>132730</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="11">
+      <c r="A11"/>
       <c r="B11">
-        <v>702</v>
+        <v>214</v>
       </c>
       <c r="C11">
-        <v>678651</v>
+        <v>57169</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="12">
+      <c r="A12"/>
       <c r="B12">
-        <v>526</v>
+        <v>961</v>
       </c>
       <c r="C12">
-        <v>751536</v>
+        <v>717649</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="1"/>
       </c>
     </row>
     <row r="13">
+      <c r="A13"/>
       <c r="B13">
-        <v>58</v>
+        <v>880</v>
       </c>
       <c r="C13">
-        <v>655140</v>
+        <v>32781</v>
       </c>
       <c r="D13" s="15">
         <f t="shared" si="1"/>
